--- a/bulletin/macroeconomics/static/macroeconomics/tables/pmi_industry_services_by_country.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/pmi_industry_services_by_country.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9D016A-8735-43D7-92E7-E41BF2085B1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C14C1-39B7-48B8-A81B-F32B2F2E63E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Страны</t>
   </si>
   <si>
-    <t>Промыш-ленность</t>
-  </si>
-  <si>
     <t>дек</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>Услуги</t>
+  </si>
+  <si>
+    <t>Промышленность</t>
   </si>
 </sst>
 </file>
@@ -136,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,87 +424,105 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>2021</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2022</v>
       </c>
-      <c r="O1">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
       </c>
       <c r="B3">
         <v>48.9</v>
@@ -558,9 +579,9 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>51.6</v>
@@ -617,9 +638,9 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>57.7</v>
@@ -676,9 +697,9 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>54.3</v>
@@ -735,9 +756,9 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>49.8</v>
@@ -794,9 +815,9 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>50.9</v>
@@ -853,9 +874,9 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>55.5</v>
@@ -912,9 +933,9 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>57.9</v>
@@ -971,9 +992,9 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>58</v>
@@ -1030,9 +1051,9 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>57.4</v>
@@ -1089,9 +1110,9 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>55.6</v>
@@ -1148,9 +1169,9 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>62</v>
@@ -1207,68 +1228,68 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>6</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>8</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>10</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>11</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
       </c>
       <c r="B16">
         <v>52.7</v>
@@ -1325,9 +1346,9 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>49.5</v>
@@ -1384,9 +1405,9 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>57.6</v>
@@ -1443,9 +1464,9 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>52.1</v>
@@ -1502,9 +1523,9 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>53.6</v>
@@ -1561,9 +1582,9 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>53.1</v>
@@ -1620,9 +1641,9 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>55.5</v>
@@ -1679,9 +1700,9 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>53.6</v>
@@ -1738,9 +1759,9 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>53.1</v>
@@ -1797,9 +1818,9 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>48.7</v>
@@ -1856,9 +1877,9 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>57</v>
@@ -1915,9 +1936,9 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>53</v>
@@ -1975,6 +1996,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
